--- a/appconfig/data/externaldata/vergi_yuzsuz.xlsx
+++ b/appconfig/data/externaldata/vergi_yuzsuz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\dumanCPMSBack\appconfig\data\externaldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\dumanCPMSRevise\appconfig\data\externaldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2239,7 +2239,7 @@
         <v>1102743621.5599999</v>
       </c>
       <c r="F2">
-        <v>18275664122</v>
+        <v>18319776776</v>
       </c>
       <c r="G2" t="s">
         <v>585</v>

--- a/appconfig/data/externaldata/vergi_yuzsuz.xlsx
+++ b/appconfig/data/externaldata/vergi_yuzsuz.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="592">
   <si>
     <t>Esas Faaliyet Konusu</t>
   </si>
@@ -1806,6 +1806,9 @@
   </si>
   <si>
     <t>KADIKÖY 9. VD</t>
+  </si>
+  <si>
+    <t>Umut Üçok</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2245,7 @@
         <v>18319776776</v>
       </c>
       <c r="G2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H2" t="s">
         <v>586</v>
